--- a/data/pca/factorExposure/factorExposure_2011-02-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-02-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +735,48 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.009876510597327222</v>
+        <v>0.01496047201833488</v>
       </c>
       <c r="C2">
-        <v>-0.001126199985909213</v>
+        <v>0.003088826424068476</v>
       </c>
       <c r="D2">
-        <v>0.03039183447124333</v>
+        <v>0.004317753574313198</v>
       </c>
       <c r="E2">
-        <v>0.02086924413399803</v>
+        <v>0.008964046924901116</v>
       </c>
       <c r="F2">
-        <v>0.008610150372047104</v>
+        <v>-0.005113639040472639</v>
       </c>
       <c r="G2">
-        <v>-0.01637072961590327</v>
+        <v>-0.01851056310315613</v>
       </c>
       <c r="H2">
-        <v>0.06308330405473155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.0241464847857656</v>
+      </c>
+      <c r="I2">
+        <v>-0.01769538619328754</v>
+      </c>
+      <c r="J2">
+        <v>-0.007441646940117452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +799,48 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.110547104380619</v>
+        <v>0.1234581450928404</v>
       </c>
       <c r="C4">
-        <v>0.0178049923506233</v>
+        <v>0.0499073003719171</v>
       </c>
       <c r="D4">
-        <v>0.06783510751956523</v>
+        <v>0.0085634778509942</v>
       </c>
       <c r="E4">
-        <v>0.04872568650169059</v>
+        <v>-0.004855717437650971</v>
       </c>
       <c r="F4">
-        <v>0.009744235372657626</v>
+        <v>0.005701288621812904</v>
       </c>
       <c r="G4">
-        <v>-0.03830840005738088</v>
+        <v>0.01845640133748971</v>
       </c>
       <c r="H4">
-        <v>-0.03434542143266403</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.05086827801285128</v>
+      </c>
+      <c r="I4">
+        <v>0.09394616812447021</v>
+      </c>
+      <c r="J4">
+        <v>0.07252624973232118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +863,368 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.1276455286585012</v>
+        <v>0.1191467235366881</v>
       </c>
       <c r="C6">
-        <v>0.01972211669286124</v>
+        <v>-0.01718260191329642</v>
       </c>
       <c r="D6">
-        <v>-0.04836135889565687</v>
+        <v>0.01397930080794451</v>
       </c>
       <c r="E6">
-        <v>0.04048500280779945</v>
+        <v>0.01573264939447104</v>
       </c>
       <c r="F6">
-        <v>-0.2220218720495784</v>
+        <v>-0.03856829977725306</v>
       </c>
       <c r="G6">
-        <v>0.200162777069414</v>
+        <v>0.0403789027488238</v>
       </c>
       <c r="H6">
-        <v>-0.2319202428613602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.06674741713050615</v>
+      </c>
+      <c r="I6">
+        <v>0.07046104463293529</v>
+      </c>
+      <c r="J6">
+        <v>-0.1581003530725639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.08697923245171466</v>
+        <v>0.07694520821859975</v>
       </c>
       <c r="C7">
-        <v>0.0400059207746525</v>
+        <v>0.04311833882662943</v>
       </c>
       <c r="D7">
-        <v>0.03515327575223948</v>
+        <v>0.03420943971818266</v>
       </c>
       <c r="E7">
-        <v>0.04530473003757477</v>
+        <v>0.03875162037103069</v>
       </c>
       <c r="F7">
-        <v>-0.00656519173775</v>
+        <v>-0.005100188439256585</v>
       </c>
       <c r="G7">
-        <v>0.01239113883256023</v>
+        <v>-0.04327480276716024</v>
       </c>
       <c r="H7">
-        <v>-0.009639011960468156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.03325037117894532</v>
+      </c>
+      <c r="I7">
+        <v>-0.004379183917796966</v>
+      </c>
+      <c r="J7">
+        <v>0.06279438225056989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.03941045337686213</v>
+        <v>0.05360578913571278</v>
       </c>
       <c r="C8">
-        <v>-0.04027592581227454</v>
+        <v>0.005848700125292254</v>
       </c>
       <c r="D8">
-        <v>0.0695788553023105</v>
+        <v>0.00726410148590649</v>
       </c>
       <c r="E8">
-        <v>0.09361912270422998</v>
+        <v>0.02442302251575218</v>
       </c>
       <c r="F8">
-        <v>-0.0642479796914535</v>
+        <v>0.0201660390913669</v>
       </c>
       <c r="G8">
-        <v>-0.1479428956127599</v>
+        <v>0.02932717253269472</v>
       </c>
       <c r="H8">
-        <v>-0.09343777166477839</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.07215034207909475</v>
+      </c>
+      <c r="I8">
+        <v>0.09037454665648091</v>
+      </c>
+      <c r="J8">
+        <v>0.01981445361450394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.09587170881770789</v>
+        <v>0.09714686495927277</v>
       </c>
       <c r="C9">
-        <v>0.03323809366686123</v>
+        <v>0.04904265989532852</v>
       </c>
       <c r="D9">
-        <v>0.04361668451645689</v>
+        <v>-0.008684532703149554</v>
       </c>
       <c r="E9">
-        <v>0.04329063401831142</v>
+        <v>0.01017770020605411</v>
       </c>
       <c r="F9">
-        <v>-0.02458845083830758</v>
+        <v>0.01541399505247132</v>
       </c>
       <c r="G9">
-        <v>-0.07110249790423465</v>
+        <v>0.007364641191777797</v>
       </c>
       <c r="H9">
-        <v>-0.05677571910187986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.05787298229517186</v>
+      </c>
+      <c r="I9">
+        <v>0.07795313403697234</v>
+      </c>
+      <c r="J9">
+        <v>0.04429168327706692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.04031557134349176</v>
+        <v>0.06057680940577609</v>
       </c>
       <c r="C10">
-        <v>-0.1774976279926851</v>
+        <v>-0.1897903163226004</v>
       </c>
       <c r="D10">
-        <v>0.014205796794323</v>
+        <v>-0.003669134407073954</v>
       </c>
       <c r="E10">
-        <v>0.09610261339293888</v>
+        <v>0.005512171411833838</v>
       </c>
       <c r="F10">
-        <v>-0.02850952021854538</v>
+        <v>0.008457929090608713</v>
       </c>
       <c r="G10">
-        <v>0.04482862123329246</v>
+        <v>-0.05877529644642925</v>
       </c>
       <c r="H10">
-        <v>-0.02431972790628423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.01879574706231282</v>
+      </c>
+      <c r="I10">
+        <v>0.0212733151557963</v>
+      </c>
+      <c r="J10">
+        <v>0.01852161696283514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.07778786173118772</v>
+        <v>0.0958490070446424</v>
       </c>
       <c r="C11">
-        <v>0.05520212300426551</v>
+        <v>0.06866322903842105</v>
       </c>
       <c r="D11">
-        <v>-0.02064540117404142</v>
+        <v>0.02995561289065075</v>
       </c>
       <c r="E11">
-        <v>0.01597364442359808</v>
+        <v>0.04005519938509876</v>
       </c>
       <c r="F11">
-        <v>-0.01759361707958761</v>
+        <v>0.06666870520111949</v>
       </c>
       <c r="G11">
-        <v>-0.1480913795087613</v>
+        <v>0.03486958552769997</v>
       </c>
       <c r="H11">
-        <v>0.02731062728739816</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.0920018364450939</v>
+      </c>
+      <c r="I11">
+        <v>0.06031369246715909</v>
+      </c>
+      <c r="J11">
+        <v>0.02589653999533425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.07661665964592475</v>
+        <v>0.1020799892149021</v>
       </c>
       <c r="C12">
-        <v>0.03100458869458362</v>
+        <v>0.07117808705252031</v>
       </c>
       <c r="D12">
-        <v>0.0125891868386029</v>
+        <v>0.03107348425863242</v>
       </c>
       <c r="E12">
-        <v>0.01041305241693051</v>
+        <v>0.04284591995863063</v>
       </c>
       <c r="F12">
-        <v>-0.06095397850846554</v>
+        <v>0.07938580057694017</v>
       </c>
       <c r="G12">
-        <v>-0.1420963056500628</v>
+        <v>0.02408209629330172</v>
       </c>
       <c r="H12">
-        <v>0.03006963814385416</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.09718801431824318</v>
+      </c>
+      <c r="I12">
+        <v>0.05020347990264666</v>
+      </c>
+      <c r="J12">
+        <v>0.01191145330628557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06425423731609099</v>
+        <v>0.04623879847456926</v>
       </c>
       <c r="C13">
-        <v>0.002887403713943686</v>
+        <v>0.01728172466434182</v>
       </c>
       <c r="D13">
-        <v>0.0297265294101772</v>
+        <v>-0.02757312564828829</v>
       </c>
       <c r="E13">
-        <v>0.005660342048300906</v>
+        <v>0.001848285452420843</v>
       </c>
       <c r="F13">
-        <v>0.01787068995760316</v>
+        <v>5.727796017407302e-05</v>
       </c>
       <c r="G13">
-        <v>-0.1196209323728379</v>
+        <v>0.01647237471544344</v>
       </c>
       <c r="H13">
-        <v>-0.05413280005596949</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.07976472950907051</v>
+      </c>
+      <c r="I13">
+        <v>0.03167379751829051</v>
+      </c>
+      <c r="J13">
+        <v>-0.0006876827705652954</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.05131547809164181</v>
+        <v>0.03173608297989031</v>
       </c>
       <c r="C14">
-        <v>0.009674364931181217</v>
+        <v>0.00547079118968699</v>
       </c>
       <c r="D14">
-        <v>0.02090058274243017</v>
+        <v>0.003760234497646438</v>
       </c>
       <c r="E14">
-        <v>0.04878093334104643</v>
+        <v>0.006341669503573832</v>
       </c>
       <c r="F14">
-        <v>0.003384798986583474</v>
+        <v>0.01433222535179267</v>
       </c>
       <c r="G14">
-        <v>-0.009420115377337607</v>
+        <v>-0.002793027566253241</v>
       </c>
       <c r="H14">
-        <v>-0.1455929592286642</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.01255118010126069</v>
+      </c>
+      <c r="I14">
+        <v>0.0432690240349107</v>
+      </c>
+      <c r="J14">
+        <v>0.1045681478930642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.03724393029539305</v>
+        <v>0.03063433801954353</v>
       </c>
       <c r="C15">
-        <v>-0.01068164022433607</v>
+        <v>0.01675459267869379</v>
       </c>
       <c r="D15">
-        <v>0.005142985037985447</v>
+        <v>-0.0103035335279945</v>
       </c>
       <c r="E15">
-        <v>0.02270153104819842</v>
+        <v>0.009398115823779399</v>
       </c>
       <c r="F15">
-        <v>-8.746901629143845e-05</v>
+        <v>-0.02441106007675214</v>
       </c>
       <c r="G15">
-        <v>-0.003286284550291264</v>
+        <v>0.006340551353039283</v>
       </c>
       <c r="H15">
-        <v>-0.07279733277524901</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.04416727256487071</v>
+      </c>
+      <c r="I15">
+        <v>0.01373519314198087</v>
+      </c>
+      <c r="J15">
+        <v>0.03927142359538287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.08575441225877846</v>
+        <v>0.1027617322755574</v>
       </c>
       <c r="C16">
-        <v>0.06058247279576653</v>
+        <v>0.06306064970694757</v>
       </c>
       <c r="D16">
-        <v>0.02830046524425638</v>
+        <v>0.0393543353724057</v>
       </c>
       <c r="E16">
-        <v>0.01639957025134793</v>
+        <v>0.05773230754051675</v>
       </c>
       <c r="F16">
-        <v>-0.008993221761552242</v>
+        <v>0.0707307409095201</v>
       </c>
       <c r="G16">
-        <v>-0.1299976879587052</v>
+        <v>0.02258521373878399</v>
       </c>
       <c r="H16">
-        <v>0.02937676084861472</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.09392112825480643</v>
+      </c>
+      <c r="I16">
+        <v>0.04666057188303935</v>
+      </c>
+      <c r="J16">
+        <v>0.0251971868603276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1247,16 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1279,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1311,240 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.05765713956259046</v>
+        <v>0.0586911119006692</v>
       </c>
       <c r="C20">
-        <v>0.01550584152415918</v>
+        <v>0.03000979146469665</v>
       </c>
       <c r="D20">
-        <v>-0.005727195741797841</v>
+        <v>0.03185910687086736</v>
       </c>
       <c r="E20">
-        <v>0.01646716852948082</v>
+        <v>0.00798234448464568</v>
       </c>
       <c r="F20">
-        <v>-0.03885741497197651</v>
+        <v>-0.006897662122911671</v>
       </c>
       <c r="G20">
-        <v>-0.1013791499749321</v>
+        <v>0.006883027737293507</v>
       </c>
       <c r="H20">
-        <v>-0.02620190001788338</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.0394703487943066</v>
+      </c>
+      <c r="I20">
+        <v>0.03270804762257632</v>
+      </c>
+      <c r="J20">
+        <v>0.06453610153019587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.02707995166973736</v>
+        <v>0.02197559893515049</v>
       </c>
       <c r="C21">
-        <v>0.02939536591015753</v>
+        <v>0.002627587364967086</v>
       </c>
       <c r="D21">
-        <v>-0.00206914213238009</v>
+        <v>0.006458854723205193</v>
       </c>
       <c r="E21">
-        <v>-0.003473305066166361</v>
+        <v>-0.03446595395598288</v>
       </c>
       <c r="F21">
-        <v>-0.03616095263038285</v>
+        <v>-7.369528201714029e-05</v>
       </c>
       <c r="G21">
-        <v>0.1641227242555214</v>
+        <v>0.03105131453767363</v>
       </c>
       <c r="H21">
-        <v>-0.0829385476582418</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.01159103182177329</v>
+      </c>
+      <c r="I21">
+        <v>0.04018190205586837</v>
+      </c>
+      <c r="J21">
+        <v>0.05337136356361467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.0401225477683291</v>
+        <v>0.03820401344823431</v>
       </c>
       <c r="C22">
-        <v>0.01305417112676443</v>
+        <v>-0.02798420517683447</v>
       </c>
       <c r="D22">
-        <v>0.6151226627650181</v>
+        <v>-0.004697244327427834</v>
       </c>
       <c r="E22">
-        <v>-0.1322057422415819</v>
+        <v>0.08330098746738285</v>
       </c>
       <c r="F22">
-        <v>0.06805169850237767</v>
+        <v>-0.5769780520004503</v>
       </c>
       <c r="G22">
-        <v>0.2195434151918305</v>
+        <v>-0.04890390616465378</v>
       </c>
       <c r="H22">
-        <v>0.0771459681722067</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.3239485113097696</v>
+      </c>
+      <c r="I22">
+        <v>-0.09478670441572545</v>
+      </c>
+      <c r="J22">
+        <v>-0.08936876234127837</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.04054801486101384</v>
+        <v>0.03838468850702627</v>
       </c>
       <c r="C23">
-        <v>0.01387021412283723</v>
+        <v>-0.02770566758097857</v>
       </c>
       <c r="D23">
-        <v>0.61478158851376</v>
+        <v>-0.004282334877476376</v>
       </c>
       <c r="E23">
-        <v>-0.130473671285533</v>
+        <v>0.0848481178028901</v>
       </c>
       <c r="F23">
-        <v>0.06860739260883039</v>
+        <v>-0.5786784799957068</v>
       </c>
       <c r="G23">
-        <v>0.2213710966422311</v>
+        <v>-0.04829109810921641</v>
       </c>
       <c r="H23">
-        <v>0.07700870976968026</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.3254185175900729</v>
+      </c>
+      <c r="I23">
+        <v>-0.09286318397432491</v>
+      </c>
+      <c r="J23">
+        <v>-0.088037327033283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.08465157602005721</v>
+        <v>0.1014825324981884</v>
       </c>
       <c r="C24">
-        <v>0.04383239840914257</v>
+        <v>0.05961710065746242</v>
       </c>
       <c r="D24">
-        <v>0.03021102802523623</v>
+        <v>0.03455050108707529</v>
       </c>
       <c r="E24">
-        <v>0.03121849093122572</v>
+        <v>0.03722918712605447</v>
       </c>
       <c r="F24">
-        <v>-0.02985197406996556</v>
+        <v>0.06668914073068234</v>
       </c>
       <c r="G24">
-        <v>-0.1163532375651802</v>
+        <v>0.01130869539471094</v>
       </c>
       <c r="H24">
-        <v>0.01881464194727322</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.1005153674256534</v>
+      </c>
+      <c r="I24">
+        <v>0.04577087288424789</v>
+      </c>
+      <c r="J24">
+        <v>0.01437562182067525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.07817473163959981</v>
+        <v>0.1035785933861079</v>
       </c>
       <c r="C25">
-        <v>0.01565637865376112</v>
+        <v>0.04793657332761674</v>
       </c>
       <c r="D25">
-        <v>0.01488276481267836</v>
+        <v>0.03002187886566454</v>
       </c>
       <c r="E25">
-        <v>0.02079707609497449</v>
+        <v>0.04092587981987224</v>
       </c>
       <c r="F25">
-        <v>-0.04834396982859515</v>
+        <v>0.09381421106107286</v>
       </c>
       <c r="G25">
-        <v>-0.1150477888221424</v>
+        <v>0.0222513168966537</v>
       </c>
       <c r="H25">
-        <v>0.02169072465717092</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.09911503571058741</v>
+      </c>
+      <c r="I25">
+        <v>0.04436932903559023</v>
+      </c>
+      <c r="J25">
+        <v>0.03863066257136095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.05051451144201116</v>
+        <v>0.04822589398912463</v>
       </c>
       <c r="C26">
-        <v>0.02551117141758523</v>
+        <v>0.0007844301162662424</v>
       </c>
       <c r="D26">
-        <v>0.01214533842072063</v>
+        <v>0.02629886252939801</v>
       </c>
       <c r="E26">
-        <v>0.04129542350242799</v>
+        <v>0.01021301549434607</v>
       </c>
       <c r="F26">
-        <v>0.0178648919858147</v>
+        <v>0.00734539608323538</v>
       </c>
       <c r="G26">
-        <v>-0.07407167193801985</v>
+        <v>0.03516562282148308</v>
       </c>
       <c r="H26">
-        <v>-0.1067157801498445</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.0532586518279141</v>
+      </c>
+      <c r="I26">
+        <v>0.03041917842892826</v>
+      </c>
+      <c r="J26">
+        <v>0.06269404769632528</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1567,304 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.06393940187312373</v>
+        <v>0.06123126136102892</v>
       </c>
       <c r="C28">
-        <v>-0.3100859589807181</v>
+        <v>-0.3090545576957143</v>
       </c>
       <c r="D28">
-        <v>-0.01223982190442327</v>
+        <v>-0.07188965379301374</v>
       </c>
       <c r="E28">
-        <v>0.01909612363692095</v>
+        <v>0.03229443711150946</v>
       </c>
       <c r="F28">
-        <v>0.005397105610993208</v>
+        <v>0.0500834255096084</v>
       </c>
       <c r="G28">
-        <v>-0.001994032408169134</v>
+        <v>0.03356721516019706</v>
       </c>
       <c r="H28">
-        <v>0.05787933372914536</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.04047699984276153</v>
+      </c>
+      <c r="I28">
+        <v>0.0453061999042161</v>
+      </c>
+      <c r="J28">
+        <v>0.01128889430490635</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.05841815994343623</v>
+        <v>0.03754257692760856</v>
       </c>
       <c r="C29">
-        <v>-0.002727027671506409</v>
+        <v>0.004810215888068084</v>
       </c>
       <c r="D29">
-        <v>0.04111339318989026</v>
+        <v>-0.006377983584808626</v>
       </c>
       <c r="E29">
-        <v>0.02635238657434159</v>
+        <v>0.009922983524561687</v>
       </c>
       <c r="F29">
-        <v>0.004445090953927265</v>
+        <v>0.02162665499355965</v>
       </c>
       <c r="G29">
-        <v>-0.04334819514518554</v>
+        <v>-0.006290350720150033</v>
       </c>
       <c r="H29">
-        <v>-0.1085814761756022</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.05488647314372794</v>
+      </c>
+      <c r="I29">
+        <v>0.02289365286192159</v>
+      </c>
+      <c r="J29">
+        <v>0.1139407995255732</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1131027306106553</v>
+        <v>0.1207109153207978</v>
       </c>
       <c r="C30">
-        <v>-0.01130270148733778</v>
+        <v>0.05763799368904336</v>
       </c>
       <c r="D30">
-        <v>0.1569827140736366</v>
+        <v>-0.01040745409821584</v>
       </c>
       <c r="E30">
-        <v>0.03390871472513</v>
+        <v>0.02730805679708752</v>
       </c>
       <c r="F30">
-        <v>-0.2061390820032476</v>
+        <v>0.04320783989156116</v>
       </c>
       <c r="G30">
-        <v>-0.1620442813806334</v>
+        <v>0.09200386281120851</v>
       </c>
       <c r="H30">
-        <v>0.03348573256569515</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1198165378801549</v>
+      </c>
+      <c r="I30">
+        <v>0.08208444385587332</v>
+      </c>
+      <c r="J30">
+        <v>-0.1416738033740531</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05545673682153848</v>
+        <v>0.04056717426002416</v>
       </c>
       <c r="C31">
-        <v>0.03007590297772689</v>
+        <v>0.02387617554028677</v>
       </c>
       <c r="D31">
-        <v>0.02288981615516104</v>
+        <v>0.02092326501161181</v>
       </c>
       <c r="E31">
-        <v>-0.01070909599120898</v>
+        <v>0.02189936164096689</v>
       </c>
       <c r="F31">
-        <v>-5.999313359965781e-05</v>
+        <v>-0.006781191008408096</v>
       </c>
       <c r="G31">
-        <v>-0.02624862103004313</v>
+        <v>0.001781642755770743</v>
       </c>
       <c r="H31">
-        <v>-0.04161612180180671</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.01173640080643739</v>
+      </c>
+      <c r="I31">
+        <v>0.02440844426617178</v>
+      </c>
+      <c r="J31">
+        <v>0.06696682370472959</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.03391870098294746</v>
+        <v>0.05635819587227579</v>
       </c>
       <c r="C32">
-        <v>-0.01820417584522707</v>
+        <v>0.004342751529092828</v>
       </c>
       <c r="D32">
-        <v>0.07100080514785163</v>
+        <v>0.02457277107736903</v>
       </c>
       <c r="E32">
-        <v>-0.0106681370379275</v>
+        <v>-0.005663482174284534</v>
       </c>
       <c r="F32">
-        <v>0.0863159400011759</v>
+        <v>0.04484470515954981</v>
       </c>
       <c r="G32">
-        <v>-0.07919783957937256</v>
+        <v>0.06808801840970188</v>
       </c>
       <c r="H32">
-        <v>-0.03270925326519915</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.04408184272938376</v>
+      </c>
+      <c r="I32">
+        <v>-0.006907932141749325</v>
+      </c>
+      <c r="J32">
+        <v>0.02051789653723881</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.1125193767361351</v>
+        <v>0.1117433773321514</v>
       </c>
       <c r="C33">
-        <v>0.01285507333257952</v>
+        <v>0.04713200772078008</v>
       </c>
       <c r="D33">
-        <v>0.024008865619794</v>
+        <v>0.002517271294923979</v>
       </c>
       <c r="E33">
-        <v>-0.02450246038476403</v>
+        <v>0.06979875519912983</v>
       </c>
       <c r="F33">
-        <v>-0.01889353576728244</v>
+        <v>0.04611307555395418</v>
       </c>
       <c r="G33">
-        <v>-0.07013938715441219</v>
+        <v>0.02129927440350212</v>
       </c>
       <c r="H33">
-        <v>-0.06969428562179342</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.06952870245559967</v>
+      </c>
+      <c r="I33">
+        <v>0.01999584821297961</v>
+      </c>
+      <c r="J33">
+        <v>0.02104297671137512</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.06917214182697663</v>
+        <v>0.08785368338660111</v>
       </c>
       <c r="C34">
-        <v>0.03491487816689919</v>
+        <v>0.04355104012406035</v>
       </c>
       <c r="D34">
-        <v>0.00386316591660743</v>
+        <v>0.03152533484089682</v>
       </c>
       <c r="E34">
-        <v>0.0006494437363309466</v>
+        <v>0.03640629116722435</v>
       </c>
       <c r="F34">
-        <v>0.0005651613954655776</v>
+        <v>0.07629565041456415</v>
       </c>
       <c r="G34">
-        <v>-0.1011904831517648</v>
+        <v>0.0152534130945867</v>
       </c>
       <c r="H34">
-        <v>0.003681579532630026</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.1080855245461707</v>
+      </c>
+      <c r="I34">
+        <v>0.01398580539291123</v>
+      </c>
+      <c r="J34">
+        <v>0.0285410803106078</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>-0.04250237917484943</v>
+        <v>0.0209474009735809</v>
       </c>
       <c r="C35">
-        <v>0.005286591247347562</v>
+        <v>0.007890619393055947</v>
       </c>
       <c r="D35">
-        <v>-0.02545430516466369</v>
+        <v>-0.009413207509620977</v>
       </c>
       <c r="E35">
-        <v>-0.01044497040216572</v>
+        <v>0.005499421384732058</v>
       </c>
       <c r="F35">
-        <v>-0.04215457406012998</v>
+        <v>0.0180075985562149</v>
       </c>
       <c r="G35">
-        <v>-0.03362161157564367</v>
+        <v>0.005622519703865847</v>
       </c>
       <c r="H35">
-        <v>0.01387769898345424</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.0352149435583332</v>
+      </c>
+      <c r="I35">
+        <v>0.01068161001324155</v>
+      </c>
+      <c r="J35">
+        <v>0.06985535371177892</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.03956737867124127</v>
+        <v>0.03027296011382972</v>
       </c>
       <c r="C36">
-        <v>5.938926541231813e-05</v>
+        <v>0.01282642735288251</v>
       </c>
       <c r="D36">
-        <v>0.0223278631698681</v>
+        <v>-0.006265395866643827</v>
       </c>
       <c r="E36">
-        <v>0.02260152296881374</v>
+        <v>0.006314413847673001</v>
       </c>
       <c r="F36">
-        <v>-0.03786237433696581</v>
+        <v>-0.01148812708843619</v>
       </c>
       <c r="G36">
-        <v>-0.05864830699626353</v>
+        <v>0.02757469111683213</v>
       </c>
       <c r="H36">
-        <v>-0.06024407904167945</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.02476987675415143</v>
+      </c>
+      <c r="I36">
+        <v>0.03817932962277804</v>
+      </c>
+      <c r="J36">
+        <v>0.02931688282900396</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1887,144 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05123109664916981</v>
+        <v>0.01565644597094115</v>
       </c>
       <c r="C38">
-        <v>0.02344123204051971</v>
+        <v>0.006102210594646352</v>
       </c>
       <c r="D38">
-        <v>0.006340327682918569</v>
+        <v>0.006525429741994744</v>
       </c>
       <c r="E38">
-        <v>0.007083299120855004</v>
+        <v>0.008007882793981382</v>
       </c>
       <c r="F38">
-        <v>0.01765716172447978</v>
+        <v>-0.02156139506576707</v>
       </c>
       <c r="G38">
-        <v>-0.06217765302418173</v>
+        <v>-0.02524187346689162</v>
       </c>
       <c r="H38">
-        <v>-0.01156469836140059</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.007396071806428616</v>
+      </c>
+      <c r="I38">
+        <v>-0.03380562011342614</v>
+      </c>
+      <c r="J38">
+        <v>-0.0137144917798102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.1067190433974422</v>
+        <v>0.1551954768552326</v>
       </c>
       <c r="C39">
-        <v>0.04344828326702697</v>
+        <v>0.1067103639804499</v>
       </c>
       <c r="D39">
-        <v>0.06666602882498382</v>
+        <v>0.03254147938903247</v>
       </c>
       <c r="E39">
-        <v>0.008435665887383901</v>
+        <v>0.0550046556072703</v>
       </c>
       <c r="F39">
-        <v>-0.008808790184731703</v>
+        <v>0.1638248522401334</v>
       </c>
       <c r="G39">
-        <v>-0.1591187394315005</v>
+        <v>0.04594475248324568</v>
       </c>
       <c r="H39">
-        <v>0.09175292475285399</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.1598802309070755</v>
+      </c>
+      <c r="I39">
+        <v>0.02626999153137043</v>
+      </c>
+      <c r="J39">
+        <v>0.06462808227433987</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.04421002139205521</v>
+        <v>0.01750398019874741</v>
       </c>
       <c r="C40">
-        <v>0.01761224939658684</v>
+        <v>0.00581899636732662</v>
       </c>
       <c r="D40">
-        <v>0.04841484665923506</v>
+        <v>0.01448967707740933</v>
       </c>
       <c r="E40">
-        <v>-0.0269914544690617</v>
+        <v>-0.00841848782567556</v>
       </c>
       <c r="F40">
-        <v>-0.09922688184832347</v>
+        <v>-0.04311562208672932</v>
       </c>
       <c r="G40">
-        <v>-0.2835426997813708</v>
+        <v>0.02309257605525563</v>
       </c>
       <c r="H40">
-        <v>0.09155572166849529</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.09010818042993192</v>
+      </c>
+      <c r="I40">
+        <v>0.06193664702442121</v>
+      </c>
+      <c r="J40">
+        <v>-0.00559774149120947</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.04835058932190274</v>
+        <v>0.02675528236362985</v>
       </c>
       <c r="C41">
-        <v>0.03528578604158095</v>
+        <v>-0.004744359416732931</v>
       </c>
       <c r="D41">
-        <v>-0.02309414020387826</v>
+        <v>0.03029115541171764</v>
       </c>
       <c r="E41">
-        <v>0.002978864733705896</v>
+        <v>0.006569779424454315</v>
       </c>
       <c r="F41">
-        <v>0.02404699786299221</v>
+        <v>0.01069455739159569</v>
       </c>
       <c r="G41">
-        <v>-0.0517965139469329</v>
+        <v>-0.00467957318220988</v>
       </c>
       <c r="H41">
-        <v>-0.006566779160436472</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.009621299672947111</v>
+      </c>
+      <c r="I41">
+        <v>0.0036144012560918</v>
+      </c>
+      <c r="J41">
+        <v>0.05481773263364292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2047,80 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.0733827819934601</v>
+        <v>0.03885463075085466</v>
       </c>
       <c r="C43">
-        <v>0.03029779489576474</v>
+        <v>6.018731256857004e-05</v>
       </c>
       <c r="D43">
-        <v>0.03457349445900097</v>
+        <v>0.03780470596895002</v>
       </c>
       <c r="E43">
-        <v>0.006834798728076234</v>
+        <v>0.03279522752206205</v>
       </c>
       <c r="F43">
-        <v>0.03840029885107296</v>
+        <v>-0.00345619194199363</v>
       </c>
       <c r="G43">
-        <v>-0.01435527571214239</v>
+        <v>0.0001514230294950542</v>
       </c>
       <c r="H43">
-        <v>-0.00548759331548322</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.008490032282553486</v>
+      </c>
+      <c r="I43">
+        <v>0.006926934117189763</v>
+      </c>
+      <c r="J43">
+        <v>0.06619455352109946</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.08191112114479758</v>
+        <v>0.1259555024316539</v>
       </c>
       <c r="C44">
-        <v>0.003616812438114853</v>
+        <v>0.06257991639623053</v>
       </c>
       <c r="D44">
-        <v>0.06543900418998584</v>
+        <v>-0.006829796108869609</v>
       </c>
       <c r="E44">
-        <v>0.1105702472968666</v>
+        <v>0.03329183178700385</v>
       </c>
       <c r="F44">
-        <v>0.01691421118420137</v>
+        <v>0.01740102835725836</v>
       </c>
       <c r="G44">
-        <v>-0.1055348167519047</v>
+        <v>-0.04749284267526385</v>
       </c>
       <c r="H44">
-        <v>-0.02954097220723458</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.2202570066357908</v>
+      </c>
+      <c r="I44">
+        <v>0.09531982021413504</v>
+      </c>
+      <c r="J44">
+        <v>-0.1329425906420673</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2143,368 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.05117034086221121</v>
+        <v>0.02228080932123202</v>
       </c>
       <c r="C46">
-        <v>0.03968935234776051</v>
+        <v>-0.001232963215572648</v>
       </c>
       <c r="D46">
-        <v>0.0507566162331557</v>
+        <v>0.02127037100169207</v>
       </c>
       <c r="E46">
-        <v>-0.00194242296565727</v>
+        <v>0.0203028923208731</v>
       </c>
       <c r="F46">
-        <v>0.00545267848239866</v>
+        <v>-0.02792204245187308</v>
       </c>
       <c r="G46">
-        <v>-0.006540229089675469</v>
+        <v>-0.009027462414546788</v>
       </c>
       <c r="H46">
-        <v>-0.09639723547134503</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.04791594243156553</v>
+      </c>
+      <c r="I46">
+        <v>-0.009512972293070816</v>
+      </c>
+      <c r="J46">
+        <v>0.1069159021645568</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.05178548345929696</v>
+        <v>0.04763880120688808</v>
       </c>
       <c r="C47">
-        <v>-0.00434080589221693</v>
+        <v>-0.001020113571930985</v>
       </c>
       <c r="D47">
-        <v>0.04711837877983072</v>
+        <v>0.01400574229154587</v>
       </c>
       <c r="E47">
-        <v>-0.02495513282095913</v>
+        <v>0.01266891627206652</v>
       </c>
       <c r="F47">
-        <v>-0.04663722448417471</v>
+        <v>-0.005473094094749442</v>
       </c>
       <c r="G47">
-        <v>-0.01534936393046408</v>
+        <v>0.03183195464643088</v>
       </c>
       <c r="H47">
-        <v>-0.04573688330321328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.04301521808019191</v>
+      </c>
+      <c r="I47">
+        <v>0.04779557534215623</v>
+      </c>
+      <c r="J47">
+        <v>0.05034071803731153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.04203757181480226</v>
+        <v>0.04486732868208821</v>
       </c>
       <c r="C48">
-        <v>0.004046243167712014</v>
+        <v>0.01484760409462639</v>
       </c>
       <c r="D48">
-        <v>0.03152150546627671</v>
+        <v>-0.01177253265672147</v>
       </c>
       <c r="E48">
-        <v>-0.04160645835208097</v>
+        <v>0.01615686642865104</v>
       </c>
       <c r="F48">
-        <v>-0.0501918337897795</v>
+        <v>0.006394953999900619</v>
       </c>
       <c r="G48">
-        <v>-0.03203826669194838</v>
+        <v>0.03735174257398717</v>
       </c>
       <c r="H48">
-        <v>-0.01744164549058649</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.04669179571850817</v>
+      </c>
+      <c r="I48">
+        <v>0.03210285049213172</v>
+      </c>
+      <c r="J48">
+        <v>0.07705971780484024</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>-0.2430666050757162</v>
+        <v>0.2274175703231109</v>
       </c>
       <c r="C49">
-        <v>0.0649960779459243</v>
+        <v>-0.009709507931242412</v>
       </c>
       <c r="D49">
-        <v>-0.1076013479290959</v>
+        <v>0.06284917915526343</v>
       </c>
       <c r="E49">
-        <v>0.0006849569088567951</v>
+        <v>-0.02447181488209814</v>
       </c>
       <c r="F49">
-        <v>0.03457609547336497</v>
+        <v>0.03205286145608081</v>
       </c>
       <c r="G49">
-        <v>0.2006113475380569</v>
+        <v>-0.1185728869523321</v>
       </c>
       <c r="H49">
-        <v>0.1023967148771267</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.08932056830532578</v>
+      </c>
+      <c r="I49">
+        <v>-0.08684640404198664</v>
+      </c>
+      <c r="J49">
+        <v>-0.2564323684857838</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.05703240792712028</v>
+        <v>0.04663859943172817</v>
       </c>
       <c r="C50">
-        <v>0.0165435482432064</v>
+        <v>0.02025136867707342</v>
       </c>
       <c r="D50">
-        <v>0.02615161294525253</v>
+        <v>0.02779246913294411</v>
       </c>
       <c r="E50">
-        <v>-0.01768544074279038</v>
+        <v>0.01498158004752473</v>
       </c>
       <c r="F50">
-        <v>0.01072604096044321</v>
+        <v>0.002473746277152545</v>
       </c>
       <c r="G50">
-        <v>-0.02066211405664051</v>
+        <v>0.006176068565164746</v>
       </c>
       <c r="H50">
-        <v>-0.0708374276030091</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.02888283897709437</v>
+      </c>
+      <c r="I50">
+        <v>0.01260675508946008</v>
+      </c>
+      <c r="J50">
+        <v>0.06006477132985286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.03174536074337863</v>
+        <v>0.01342075031916048</v>
       </c>
       <c r="C51">
-        <v>0.01391579486421547</v>
+        <v>-0.00874356951356535</v>
       </c>
       <c r="D51">
-        <v>0.0148836163833119</v>
+        <v>0.00187692717896705</v>
       </c>
       <c r="E51">
-        <v>0.02231587723790512</v>
+        <v>0.01475436219689615</v>
       </c>
       <c r="F51">
-        <v>0.03580402631106596</v>
+        <v>-0.00559406125250636</v>
       </c>
       <c r="G51">
-        <v>0.003649793177808624</v>
+        <v>-0.02563339788254787</v>
       </c>
       <c r="H51">
-        <v>0.03951143309451309</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.005458498798632675</v>
+      </c>
+      <c r="I51">
+        <v>0.00371990495029793</v>
+      </c>
+      <c r="J51">
+        <v>-0.01594714893654763</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.1082580032649256</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.05995534216799694</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.03031336781628041</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.02693493324905239</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01602350790904068</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.01732941775968919</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.03351163842431308</v>
+      </c>
+      <c r="I52">
+        <v>-0.06175750552784956</v>
+      </c>
+      <c r="J52">
+        <v>0.07761184001504867</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1641213713041555</v>
+        <v>0.1587167636339849</v>
       </c>
       <c r="C53">
-        <v>0.01435341566162044</v>
+        <v>-0.0001045373441669939</v>
       </c>
       <c r="D53">
-        <v>-0.003075472592959536</v>
+        <v>-0.007290053278935954</v>
       </c>
       <c r="E53">
-        <v>-0.04934500696386315</v>
+        <v>-0.02011812893958442</v>
       </c>
       <c r="F53">
-        <v>0.169220956447425</v>
+        <v>-0.03993414092860623</v>
       </c>
       <c r="G53">
-        <v>-0.008417818814421624</v>
+        <v>-0.06776879197762037</v>
       </c>
       <c r="H53">
-        <v>-0.05137498050979631</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.07418862472626717</v>
+      </c>
+      <c r="I53">
+        <v>-0.1594600621044926</v>
+      </c>
+      <c r="J53">
+        <v>0.1029121298153134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.05266611526034026</v>
+        <v>0.05167216451293006</v>
       </c>
       <c r="C54">
-        <v>0.003596764094132972</v>
+        <v>0.004698460012547795</v>
       </c>
       <c r="D54">
-        <v>0.02713315782979981</v>
+        <v>0.009359480857218386</v>
       </c>
       <c r="E54">
-        <v>0.005410792506506079</v>
+        <v>0.01167286980038914</v>
       </c>
       <c r="F54">
-        <v>-0.03274468001908852</v>
+        <v>-0.02206651963028833</v>
       </c>
       <c r="G54">
-        <v>-0.03586252849047705</v>
+        <v>0.02597564607909383</v>
       </c>
       <c r="H54">
-        <v>-0.0830300436401422</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.05215305928640143</v>
+      </c>
+      <c r="I54">
+        <v>0.07161407658564446</v>
+      </c>
+      <c r="J54">
+        <v>0.1085581055587524</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.1020626510624677</v>
+        <v>0.09180090690680624</v>
       </c>
       <c r="C55">
-        <v>0.01685295979165084</v>
+        <v>0.02002653232981324</v>
       </c>
       <c r="D55">
-        <v>0.01085817617128131</v>
+        <v>-0.01954244504435452</v>
       </c>
       <c r="E55">
-        <v>-0.02202387731124014</v>
+        <v>0.02477400285348718</v>
       </c>
       <c r="F55">
-        <v>0.07312516702285755</v>
+        <v>0.001843762993840901</v>
       </c>
       <c r="G55">
-        <v>-0.04425535084827095</v>
+        <v>-0.0126584114228038</v>
       </c>
       <c r="H55">
-        <v>-0.08468198264009115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.01784992184578632</v>
+      </c>
+      <c r="I55">
+        <v>-0.06041561513595585</v>
+      </c>
+      <c r="J55">
+        <v>0.09390215666360008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1658972111742908</v>
+        <v>0.1610760923528176</v>
       </c>
       <c r="C56">
-        <v>0.01191228239787906</v>
+        <v>0.01124141243160194</v>
       </c>
       <c r="D56">
-        <v>-0.01177825889440258</v>
+        <v>0.007051211656101634</v>
       </c>
       <c r="E56">
-        <v>-0.08277938238691958</v>
+        <v>0.009896894385696107</v>
       </c>
       <c r="F56">
-        <v>0.15735952385112</v>
+        <v>-0.003054070611704648</v>
       </c>
       <c r="G56">
-        <v>-0.02263709272425893</v>
+        <v>-0.05106648693987418</v>
       </c>
       <c r="H56">
-        <v>-0.05632305466553062</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.007367104166492759</v>
+      </c>
+      <c r="I56">
+        <v>-0.1181565849610483</v>
+      </c>
+      <c r="J56">
+        <v>0.09722110491939255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2527,1424 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.01738345643484238</v>
+        <v>0.03315402823649772</v>
       </c>
       <c r="C58">
-        <v>0.05956996401048558</v>
+        <v>0.02299695092457196</v>
       </c>
       <c r="D58">
-        <v>0.09478944984238888</v>
+        <v>0.01397017308219554</v>
       </c>
       <c r="E58">
-        <v>0.009459602031764268</v>
+        <v>-0.008524275435488065</v>
       </c>
       <c r="F58">
-        <v>-0.5388737697490207</v>
+        <v>-0.06135566887414347</v>
       </c>
       <c r="G58">
-        <v>-0.03059301635044497</v>
+        <v>0.03348978488047297</v>
       </c>
       <c r="H58">
-        <v>0.2566597798337508</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.096287587462228</v>
+      </c>
+      <c r="I58">
+        <v>-0.03082167632389663</v>
+      </c>
+      <c r="J58">
+        <v>0.08167260028144582</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.1540419606343396</v>
+        <v>0.1363552251840872</v>
       </c>
       <c r="C59">
-        <v>-0.3667771084950058</v>
+        <v>-0.3038789017735923</v>
       </c>
       <c r="D59">
-        <v>-0.02224615795348985</v>
+        <v>-0.06701917896075468</v>
       </c>
       <c r="E59">
-        <v>0.04252988725776541</v>
+        <v>0.0413050135172136</v>
       </c>
       <c r="F59">
-        <v>0.0529774594898892</v>
+        <v>0.03550213467094226</v>
       </c>
       <c r="G59">
-        <v>-0.005906959675815736</v>
+        <v>-0.0274350005679618</v>
       </c>
       <c r="H59">
-        <v>0.0397384368748487</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.04017267546146983</v>
+      </c>
+      <c r="I59">
+        <v>0.0656851325688088</v>
+      </c>
+      <c r="J59">
+        <v>0.01668027275336971</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.2822437029388167</v>
+        <v>0.2822408350321</v>
       </c>
       <c r="C60">
-        <v>0.04684928011983334</v>
+        <v>0.0568824655933103</v>
       </c>
       <c r="D60">
-        <v>-0.07116331257059778</v>
+        <v>0.00139538466147898</v>
       </c>
       <c r="E60">
-        <v>0.04859080191640555</v>
+        <v>-0.0768257449895865</v>
       </c>
       <c r="F60">
-        <v>0.0147653540374517</v>
+        <v>0.04367737238502397</v>
       </c>
       <c r="G60">
-        <v>0.1640712585287811</v>
+        <v>-0.2067300435688526</v>
       </c>
       <c r="H60">
-        <v>0.07812742886236036</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.1026559035395076</v>
+      </c>
+      <c r="I60">
+        <v>-0.02995474668418281</v>
+      </c>
+      <c r="J60">
+        <v>-0.4711627853359396</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.09390824537636211</v>
+        <v>0.1198234193969087</v>
       </c>
       <c r="C61">
-        <v>0.0207156004932699</v>
+        <v>0.0649719510951874</v>
       </c>
       <c r="D61">
-        <v>0.025340461046476</v>
+        <v>0.003335078108065664</v>
       </c>
       <c r="E61">
-        <v>0.0107157736504755</v>
+        <v>0.03837710778206378</v>
       </c>
       <c r="F61">
-        <v>0.0139743047407469</v>
+        <v>0.1169906127477159</v>
       </c>
       <c r="G61">
-        <v>-0.08987609480421339</v>
+        <v>0.03275736646466931</v>
       </c>
       <c r="H61">
-        <v>0.02036837320877148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.1484391536973253</v>
+      </c>
+      <c r="I61">
+        <v>0.07524899922520992</v>
+      </c>
+      <c r="J61">
+        <v>0.08824103724521164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>-0.1405229692704931</v>
+        <v>0.1617745392722414</v>
       </c>
       <c r="C62">
-        <v>0.04282416360481974</v>
+        <v>0.02735901915058883</v>
       </c>
       <c r="D62">
-        <v>-0.05043016020437014</v>
+        <v>0.001032994713617451</v>
       </c>
       <c r="E62">
-        <v>-0.09935142428378396</v>
+        <v>-0.005378678463169424</v>
       </c>
       <c r="F62">
-        <v>0.1573855758119486</v>
+        <v>-0.0100790209905158</v>
       </c>
       <c r="G62">
-        <v>0.0004422654598117131</v>
+        <v>-0.01799295565932447</v>
       </c>
       <c r="H62">
-        <v>-0.06467095341863686</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.03743035986638669</v>
+      </c>
+      <c r="I62">
+        <v>-0.1224153117095379</v>
+      </c>
+      <c r="J62">
+        <v>0.08753955744186451</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.0448325796962523</v>
+        <v>0.05260356735439368</v>
       </c>
       <c r="C63">
-        <v>0.01693682614232342</v>
+        <v>0.02369248522085796</v>
       </c>
       <c r="D63">
-        <v>0.0002467378511569336</v>
+        <v>-0.004920863743487616</v>
       </c>
       <c r="E63">
-        <v>-0.01183190503257562</v>
+        <v>0.02768172199598026</v>
       </c>
       <c r="F63">
-        <v>-0.0215393285354773</v>
+        <v>0.002460942853323513</v>
       </c>
       <c r="G63">
-        <v>-0.02568272192730087</v>
+        <v>0.06095425082189247</v>
       </c>
       <c r="H63">
-        <v>-0.1109876149786969</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.02967404597751834</v>
+      </c>
+      <c r="I63">
+        <v>0.03633249573320765</v>
+      </c>
+      <c r="J63">
+        <v>0.09630982362671504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.1108046940314934</v>
+        <v>0.1037165770706169</v>
       </c>
       <c r="C64">
-        <v>0.01073324542130486</v>
+        <v>0.02493183602390637</v>
       </c>
       <c r="D64">
-        <v>0.01679659143025598</v>
+        <v>0.01079289981831942</v>
       </c>
       <c r="E64">
-        <v>0.03335962734706081</v>
+        <v>0.01087650856840034</v>
       </c>
       <c r="F64">
-        <v>0.007014043178941211</v>
+        <v>0.005374124093998364</v>
       </c>
       <c r="G64">
-        <v>-0.03174505811598196</v>
+        <v>-0.03833579751528084</v>
       </c>
       <c r="H64">
-        <v>-0.01061793822249316</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.0521817681592967</v>
+      </c>
+      <c r="I64">
+        <v>0.03097970542766884</v>
+      </c>
+      <c r="J64">
+        <v>0.0163208251258541</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>-0.1081077546513781</v>
+        <v>0.1154005303041488</v>
       </c>
       <c r="C65">
-        <v>0.019734407891771</v>
+        <v>0.0002461570833566744</v>
       </c>
       <c r="D65">
-        <v>-0.01129860618403773</v>
+        <v>-0.01074195851661791</v>
       </c>
       <c r="E65">
-        <v>0.03758064836474579</v>
+        <v>-0.01426485292638511</v>
       </c>
       <c r="F65">
-        <v>-0.4295762251794289</v>
+        <v>0.01362855676358958</v>
       </c>
       <c r="G65">
-        <v>0.2768410183838433</v>
+        <v>0.07478754484698298</v>
       </c>
       <c r="H65">
-        <v>-0.5160749605961991</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.04515810561124441</v>
+      </c>
+      <c r="I65">
+        <v>0.06264910685333579</v>
+      </c>
+      <c r="J65">
+        <v>-0.1937923138397601</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1524589821812726</v>
+        <v>0.1874111660691822</v>
       </c>
       <c r="C66">
-        <v>0.05675567738523764</v>
+        <v>0.1126981347389403</v>
       </c>
       <c r="D66">
-        <v>0.0303778344870579</v>
+        <v>0.04659290217753356</v>
       </c>
       <c r="E66">
-        <v>0.03516229529142836</v>
+        <v>0.06271675736556699</v>
       </c>
       <c r="F66">
-        <v>0.04616759686944848</v>
+        <v>0.1564120183598991</v>
       </c>
       <c r="G66">
-        <v>-0.2713037874758901</v>
+        <v>0.03732533543724661</v>
       </c>
       <c r="H66">
-        <v>0.1703952785458223</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.1621667194759681</v>
+      </c>
+      <c r="I66">
+        <v>0.03371968858828522</v>
+      </c>
+      <c r="J66">
+        <v>0.02579635953090253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.1069132321683939</v>
+        <v>0.08312090833375017</v>
       </c>
       <c r="C67">
-        <v>0.04228450908605474</v>
+        <v>0.02621220724016293</v>
       </c>
       <c r="D67">
-        <v>-0.01101194574140117</v>
+        <v>-0.008436200816231516</v>
       </c>
       <c r="E67">
-        <v>0.03288192350085314</v>
+        <v>0.08641609049060729</v>
       </c>
       <c r="F67">
-        <v>0.05086949830163649</v>
+        <v>-0.01034149962074093</v>
       </c>
       <c r="G67">
-        <v>-0.04735936087945034</v>
+        <v>-0.06870699209017751</v>
       </c>
       <c r="H67">
-        <v>-0.009058105075094663</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.06992842368714616</v>
+      </c>
+      <c r="I67">
+        <v>0.04449832168263455</v>
+      </c>
+      <c r="J67">
+        <v>-0.1322512582198215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.04219377323863786</v>
+        <v>0.05555934944477817</v>
       </c>
       <c r="C68">
-        <v>-0.2921635048182942</v>
+        <v>-0.2755680828713769</v>
       </c>
       <c r="D68">
-        <v>0.004281637163906768</v>
+        <v>-0.06553441749043847</v>
       </c>
       <c r="E68">
-        <v>-0.0241496325733063</v>
+        <v>0.0295771059085069</v>
       </c>
       <c r="F68">
-        <v>-0.01778970269971364</v>
+        <v>0.05409814144027225</v>
       </c>
       <c r="G68">
-        <v>0.02686719718683281</v>
+        <v>0.04239413717128184</v>
       </c>
       <c r="H68">
-        <v>-0.03056020683644272</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.04211348087325579</v>
+      </c>
+      <c r="I68">
+        <v>0.04861036804772517</v>
+      </c>
+      <c r="J68">
+        <v>-0.00638701522844353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.04986788740194869</v>
+        <v>0.03880680505426731</v>
       </c>
       <c r="C69">
-        <v>0.008636640237238155</v>
+        <v>-0.0004762785234343808</v>
       </c>
       <c r="D69">
-        <v>0.003073761258963066</v>
+        <v>-0.01287280745699476</v>
       </c>
       <c r="E69">
-        <v>-0.0417517417371862</v>
+        <v>0.02460324891284518</v>
       </c>
       <c r="F69">
-        <v>-0.004233755700182682</v>
+        <v>0.004687875464641647</v>
       </c>
       <c r="G69">
-        <v>-0.01048927835488811</v>
+        <v>0.000292126857185196</v>
       </c>
       <c r="H69">
-        <v>0.001152348553738107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.01934927044743534</v>
+      </c>
+      <c r="I69">
+        <v>0.003181928110438788</v>
+      </c>
+      <c r="J69">
+        <v>0.01431225586836561</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>-0.08094176701550691</v>
+        <v>0.04258950549369363</v>
       </c>
       <c r="C70">
-        <v>0.01219068103559341</v>
+        <v>-0.00497788518144025</v>
       </c>
       <c r="D70">
-        <v>-0.02554503705381407</v>
+        <v>-0.02118202897227199</v>
       </c>
       <c r="E70">
-        <v>0.05083810445854633</v>
+        <v>0.02970243776135122</v>
       </c>
       <c r="F70">
-        <v>0.03879569747595867</v>
+        <v>0.01398493129796278</v>
       </c>
       <c r="G70">
-        <v>0.04886775161937972</v>
+        <v>-0.05086939194056212</v>
       </c>
       <c r="H70">
-        <v>-0.008727845214613403</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.007433487339286746</v>
+      </c>
+      <c r="I70">
+        <v>0.01652601700531102</v>
+      </c>
+      <c r="J70">
+        <v>0.08028845391712394</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.05424355687957366</v>
+        <v>0.06521396822953662</v>
       </c>
       <c r="C71">
-        <v>-0.3036717379391841</v>
+        <v>-0.2973247000018375</v>
       </c>
       <c r="D71">
-        <v>-0.0001564511296212337</v>
+        <v>-0.07213163312163062</v>
       </c>
       <c r="E71">
-        <v>0.0007385377468256867</v>
+        <v>0.03174092983562496</v>
       </c>
       <c r="F71">
-        <v>-0.003780986347705002</v>
+        <v>0.04958195736593742</v>
       </c>
       <c r="G71">
-        <v>-0.001493428290885243</v>
+        <v>0.01787465118667907</v>
       </c>
       <c r="H71">
-        <v>0.007994344923794387</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.05333209763995408</v>
+      </c>
+      <c r="I71">
+        <v>0.04024589126018654</v>
+      </c>
+      <c r="J71">
+        <v>-0.02246743553648933</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1272699778330488</v>
+        <v>0.1313740831587848</v>
       </c>
       <c r="C72">
-        <v>-0.009632997534612863</v>
+        <v>-0.02776688188700113</v>
       </c>
       <c r="D72">
-        <v>-0.0831117042779199</v>
+        <v>0.01185539100861259</v>
       </c>
       <c r="E72">
-        <v>-0.1243438611375948</v>
+        <v>0.0101375964027936</v>
       </c>
       <c r="F72">
-        <v>-0.003051362432988716</v>
+        <v>0.003094176670604702</v>
       </c>
       <c r="G72">
-        <v>-0.04712645594612897</v>
+        <v>0.03230078784808686</v>
       </c>
       <c r="H72">
-        <v>-0.08081899703529095</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.05491483119604652</v>
+      </c>
+      <c r="I72">
+        <v>-0.02665130978342006</v>
+      </c>
+      <c r="J72">
+        <v>0.01689414553445383</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2720004794055715</v>
+        <v>0.229273915912427</v>
       </c>
       <c r="C73">
-        <v>0.1320092404164076</v>
+        <v>0.007101210881176265</v>
       </c>
       <c r="D73">
-        <v>-0.1451166859882884</v>
+        <v>0.02997352816511175</v>
       </c>
       <c r="E73">
-        <v>0.09281746415981942</v>
+        <v>-0.004657574261014799</v>
       </c>
       <c r="F73">
-        <v>-0.08414320068505167</v>
+        <v>0.04342227328560328</v>
       </c>
       <c r="G73">
-        <v>0.3637870471110743</v>
+        <v>-0.2542761394519137</v>
       </c>
       <c r="H73">
-        <v>0.42804039331745</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.1594956846036892</v>
+      </c>
+      <c r="I73">
+        <v>-0.208058804958022</v>
+      </c>
+      <c r="J73">
+        <v>-0.2684156789064366</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.101498997472678</v>
+        <v>0.1115833458490579</v>
       </c>
       <c r="C74">
-        <v>0.0381295804761852</v>
+        <v>0.02364269809895726</v>
       </c>
       <c r="D74">
-        <v>0.008513017842684397</v>
+        <v>0.02449518488300196</v>
       </c>
       <c r="E74">
-        <v>-0.01953097803919763</v>
+        <v>0.00335615268297731</v>
       </c>
       <c r="F74">
-        <v>0.09193473691582188</v>
+        <v>-0.01717857913032995</v>
       </c>
       <c r="G74">
-        <v>0.02655403268180835</v>
+        <v>-0.003189714824864434</v>
       </c>
       <c r="H74">
-        <v>-0.02098696272507005</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.01936319678000242</v>
+      </c>
+      <c r="I74">
+        <v>-0.1189796185799878</v>
+      </c>
+      <c r="J74">
+        <v>0.09741596505485954</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.09826075098817916</v>
+        <v>0.1285664981997572</v>
       </c>
       <c r="C75">
-        <v>0.02010031995674446</v>
+        <v>0.02817039651021216</v>
       </c>
       <c r="D75">
-        <v>-0.007606520344276104</v>
+        <v>0.02364380544380692</v>
       </c>
       <c r="E75">
-        <v>-0.06917503709930126</v>
+        <v>0.009432622715565312</v>
       </c>
       <c r="F75">
-        <v>0.05818442080991943</v>
+        <v>-0.01567761753102969</v>
       </c>
       <c r="G75">
-        <v>0.01134811020788573</v>
+        <v>0.0179352532574185</v>
       </c>
       <c r="H75">
-        <v>-0.02535827032500836</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.0008667335071447202</v>
+      </c>
+      <c r="I75">
+        <v>-0.03935007355924903</v>
+      </c>
+      <c r="J75">
+        <v>0.08778472874029185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.1470060170411011</v>
+        <v>0.04093697140582921</v>
       </c>
       <c r="C76">
-        <v>0.03207554515181964</v>
+        <v>-0.004958313035233183</v>
       </c>
       <c r="D76">
-        <v>0.03254431605475394</v>
+        <v>0.009618418151836141</v>
       </c>
       <c r="E76">
-        <v>-0.04833215360462406</v>
+        <v>0.02213032803282585</v>
       </c>
       <c r="F76">
-        <v>0.1901131436180422</v>
+        <v>-0.02301517919941912</v>
       </c>
       <c r="G76">
-        <v>0.01010002881503657</v>
+        <v>-0.04834604395681816</v>
       </c>
       <c r="H76">
-        <v>-0.0484383491690459</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.03791646632667772</v>
+      </c>
+      <c r="I76">
+        <v>-0.03777001099991023</v>
+      </c>
+      <c r="J76">
+        <v>0.04982644898809578</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.07375630498603158</v>
+        <v>0.08768020051369985</v>
       </c>
       <c r="C77">
-        <v>-0.01596971970891017</v>
+        <v>0.07498968900067801</v>
       </c>
       <c r="D77">
-        <v>0.001506177866158099</v>
+        <v>0.01498536414026037</v>
       </c>
       <c r="E77">
-        <v>0.1192308014853463</v>
+        <v>-0.01860452285694943</v>
       </c>
       <c r="F77">
-        <v>-0.2011188259589618</v>
+        <v>0.0106708541626271</v>
       </c>
       <c r="G77">
-        <v>-0.1211296234742212</v>
+        <v>0.008829394560918708</v>
       </c>
       <c r="H77">
-        <v>0.2197403055061007</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.0592984880931321</v>
+      </c>
+      <c r="I77">
+        <v>0.1822757522480605</v>
+      </c>
+      <c r="J77">
+        <v>-0.1513423638485927</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.2295529936356643</v>
+        <v>0.1519473049384754</v>
       </c>
       <c r="C78">
-        <v>0.04110090526966114</v>
+        <v>0.02676280027490583</v>
       </c>
       <c r="D78">
-        <v>0.165532948812207</v>
+        <v>0.142903475106085</v>
       </c>
       <c r="E78">
-        <v>0.08840492816155977</v>
+        <v>0.2651891420714617</v>
       </c>
       <c r="F78">
-        <v>-0.1175668224418105</v>
+        <v>-0.3507301436336343</v>
       </c>
       <c r="G78">
-        <v>-0.1732289709265173</v>
+        <v>0.0261202793631536</v>
       </c>
       <c r="H78">
-        <v>-0.1040407263115957</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.5192862074489464</v>
+      </c>
+      <c r="I78">
+        <v>0.6007110855495779</v>
+      </c>
+      <c r="J78">
+        <v>0.1152905202048663</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>-0.1379544386193531</v>
+        <v>0.1445736125937565</v>
       </c>
       <c r="C79">
-        <v>0.01649255947031023</v>
+        <v>0.01986206139481908</v>
       </c>
       <c r="D79">
-        <v>-0.008659448125045068</v>
+        <v>0.04217306312619667</v>
       </c>
       <c r="E79">
-        <v>-0.05099664101441579</v>
+        <v>-0.01013598304765164</v>
       </c>
       <c r="F79">
-        <v>0.07221357239082365</v>
+        <v>-0.008625833780286897</v>
       </c>
       <c r="G79">
-        <v>-0.02564141456564831</v>
+        <v>-0.02202406135514424</v>
       </c>
       <c r="H79">
-        <v>-0.07421862781186581</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.0003981562875266368</v>
+      </c>
+      <c r="I79">
+        <v>-0.1155680103237578</v>
+      </c>
+      <c r="J79">
+        <v>0.09729369194733277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.04331415402052919</v>
+        <v>0.08095727694173768</v>
       </c>
       <c r="C80">
-        <v>-0.009917867901231378</v>
+        <v>0.0439567587789834</v>
       </c>
       <c r="D80">
-        <v>-0.1038425579460089</v>
+        <v>-0.01636893825139523</v>
       </c>
       <c r="E80">
-        <v>0.04671013844431297</v>
+        <v>0.03293044863083088</v>
       </c>
       <c r="F80">
-        <v>-0.0436506549891161</v>
+        <v>0.04534633565347783</v>
       </c>
       <c r="G80">
-        <v>-0.01111973536578961</v>
+        <v>0.009728434104688872</v>
       </c>
       <c r="H80">
-        <v>-0.11566805138567</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.01907391205810384</v>
+      </c>
+      <c r="I80">
+        <v>0.03102427784098297</v>
+      </c>
+      <c r="J80">
+        <v>0.1281322191784844</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.109433959379067</v>
+        <v>0.148743708370269</v>
       </c>
       <c r="C81">
-        <v>0.004446390701876704</v>
+        <v>0.03721580757597791</v>
       </c>
       <c r="D81">
-        <v>-0.001618428905704293</v>
+        <v>0.02912974952984701</v>
       </c>
       <c r="E81">
-        <v>-0.02496837430506823</v>
+        <v>0.02196317961837653</v>
       </c>
       <c r="F81">
-        <v>0.1100671890293453</v>
+        <v>-0.02051267670602547</v>
       </c>
       <c r="G81">
-        <v>-0.04021697511859676</v>
+        <v>-0.002817034528598637</v>
       </c>
       <c r="H81">
-        <v>-0.03947803361151311</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.01679795642354121</v>
+      </c>
+      <c r="I81">
+        <v>-0.03010309898470765</v>
+      </c>
+      <c r="J81">
+        <v>0.142982737507112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>-0.1200281692127654</v>
+        <v>0.1644587615925403</v>
       </c>
       <c r="C82">
-        <v>0.02305821834962333</v>
+        <v>0.04672841380675532</v>
       </c>
       <c r="D82">
-        <v>-0.01756615337192262</v>
+        <v>-0.007501474073202109</v>
       </c>
       <c r="E82">
-        <v>0.02118664552047195</v>
+        <v>-0.0001440447321279964</v>
       </c>
       <c r="F82">
-        <v>0.2082914089813294</v>
+        <v>0.002936554664179325</v>
       </c>
       <c r="G82">
-        <v>-0.03186967499311167</v>
+        <v>-0.05440814449837138</v>
       </c>
       <c r="H82">
-        <v>-0.07752955668254025</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.02721814006782487</v>
+      </c>
+      <c r="I82">
+        <v>-0.1512168857551466</v>
+      </c>
+      <c r="J82">
+        <v>0.1774690661503915</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.1126136224910453</v>
+        <v>0.09095387216815655</v>
       </c>
       <c r="C83">
-        <v>0.04529118743900763</v>
+        <v>0.03056965666996815</v>
       </c>
       <c r="D83">
-        <v>-0.02323592473450652</v>
+        <v>-0.0002451642616103301</v>
       </c>
       <c r="E83">
-        <v>0.08085597628199205</v>
+        <v>-0.04889599709702011</v>
       </c>
       <c r="F83">
-        <v>-0.03681552745042684</v>
+        <v>-0.04244452425405951</v>
       </c>
       <c r="G83">
-        <v>-0.05151150057176331</v>
+        <v>0.05570906512980131</v>
       </c>
       <c r="H83">
-        <v>0.06290190951176722</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.03635244212128056</v>
+      </c>
+      <c r="I83">
+        <v>0.07474425439716638</v>
+      </c>
+      <c r="J83">
+        <v>0.1094381980030574</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.04965875286123466</v>
+        <v>0.06642073079888254</v>
       </c>
       <c r="C84">
-        <v>0.03122896144513507</v>
+        <v>0.01697888118070544</v>
       </c>
       <c r="D84">
-        <v>0.01257135837193394</v>
+        <v>-0.003561261475437209</v>
       </c>
       <c r="E84">
-        <v>-0.04802691281013527</v>
+        <v>-0.01455792321969489</v>
       </c>
       <c r="F84">
-        <v>0.06212749665235578</v>
+        <v>0.08896794346968408</v>
       </c>
       <c r="G84">
-        <v>-0.0006723735361480997</v>
+        <v>-0.02305228857430334</v>
       </c>
       <c r="H84">
-        <v>-0.05390970437918687</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.06787646905295783</v>
+      </c>
+      <c r="I84">
+        <v>0.1080693240057787</v>
+      </c>
+      <c r="J84">
+        <v>-0.1418978434678023</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.1117251752429945</v>
+        <v>0.1229095656049482</v>
       </c>
       <c r="C85">
-        <v>0.01640064857951162</v>
+        <v>0.009645957568831272</v>
       </c>
       <c r="D85">
-        <v>-0.008508088851700797</v>
+        <v>0.01282921919572543</v>
       </c>
       <c r="E85">
-        <v>-0.07199199710920384</v>
+        <v>-0.009158757472041739</v>
       </c>
       <c r="F85">
-        <v>0.1085761929568119</v>
+        <v>-0.01210781026324344</v>
       </c>
       <c r="G85">
-        <v>-0.06395019614919686</v>
+        <v>-0.0191808856576951</v>
       </c>
       <c r="H85">
-        <v>-0.1165726554315263</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.001479916558259555</v>
+      </c>
+      <c r="I85">
+        <v>-0.07612797665111416</v>
+      </c>
+      <c r="J85">
+        <v>0.09434278064792356</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.06298573952683484</v>
+        <v>0.1027712371862717</v>
       </c>
       <c r="C86">
-        <v>0.02527595337836014</v>
+        <v>-0.07995257996691393</v>
       </c>
       <c r="D86">
-        <v>0.03680589009747515</v>
+        <v>0.3299845299464975</v>
       </c>
       <c r="E86">
-        <v>0.107398631492966</v>
+        <v>-0.8662906153210889</v>
       </c>
       <c r="F86">
-        <v>0.04358359067980173</v>
+        <v>-0.1151802492499306</v>
       </c>
       <c r="G86">
-        <v>0.07653965329192761</v>
+        <v>0.1042727958929531</v>
       </c>
       <c r="H86">
-        <v>-0.1976292211686679</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.05492893298067205</v>
+      </c>
+      <c r="I86">
+        <v>0.2016698596281013</v>
+      </c>
+      <c r="J86">
+        <v>0.03472507030904371</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.1132015132600078</v>
+        <v>0.1153155731470684</v>
       </c>
       <c r="C87">
-        <v>0.04905275434467224</v>
+        <v>0.08791382354988249</v>
       </c>
       <c r="D87">
-        <v>0.03375720216597722</v>
+        <v>-0.06132430074129355</v>
       </c>
       <c r="E87">
-        <v>0.02906449430476671</v>
+        <v>-0.007010902436500716</v>
       </c>
       <c r="F87">
-        <v>-0.08347707305017071</v>
+        <v>-0.0007920689108407443</v>
       </c>
       <c r="G87">
-        <v>-0.1176981194206318</v>
+        <v>-0.01315960060379498</v>
       </c>
       <c r="H87">
-        <v>-0.02947114568526953</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.04997807812370028</v>
+      </c>
+      <c r="I87">
+        <v>0.1965401942555567</v>
+      </c>
+      <c r="J87">
+        <v>-0.06608396853742704</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.07426170184683302</v>
+        <v>0.05661255183368953</v>
       </c>
       <c r="C88">
-        <v>0.04337119287375632</v>
+        <v>0.02660020237295926</v>
       </c>
       <c r="D88">
-        <v>0.009877508833882135</v>
+        <v>0.02606249260929363</v>
       </c>
       <c r="E88">
-        <v>0.02289078482429203</v>
+        <v>0.03344963579312984</v>
       </c>
       <c r="F88">
-        <v>0.014219270944814</v>
+        <v>0.05196191186481502</v>
       </c>
       <c r="G88">
-        <v>-0.05360215780215748</v>
+        <v>-0.006361045130148066</v>
       </c>
       <c r="H88">
-        <v>-0.01690926737080532</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.00831180419834868</v>
+      </c>
+      <c r="I88">
+        <v>0.02609146287119479</v>
+      </c>
+      <c r="J88">
+        <v>0.0617579339639024</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.09563255550811597</v>
+        <v>0.1015601579987857</v>
       </c>
       <c r="C89">
-        <v>-0.388138429509953</v>
+        <v>-0.3715684234054349</v>
       </c>
       <c r="D89">
-        <v>0.01627301129150386</v>
+        <v>-0.08637228164077332</v>
       </c>
       <c r="E89">
-        <v>0.04587768874974946</v>
+        <v>0.009605589282600763</v>
       </c>
       <c r="F89">
-        <v>-0.004652306842466179</v>
+        <v>-0.006938947215752688</v>
       </c>
       <c r="G89">
-        <v>0.0069454309627521</v>
+        <v>-0.0300045846534671</v>
       </c>
       <c r="H89">
-        <v>0.03029429120822818</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.02881066926058615</v>
+      </c>
+      <c r="I89">
+        <v>0.04038971100694509</v>
+      </c>
+      <c r="J89">
+        <v>0.02204415660329117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.07291142223594546</v>
+        <v>0.07386210587222172</v>
       </c>
       <c r="C90">
-        <v>-0.3021060196652362</v>
+        <v>-0.3022536075927938</v>
       </c>
       <c r="D90">
-        <v>0.03046283945703754</v>
+        <v>-0.06757393642249597</v>
       </c>
       <c r="E90">
-        <v>0.009766001074205324</v>
+        <v>0.02056867362789759</v>
       </c>
       <c r="F90">
-        <v>0.006779604465342433</v>
+        <v>0.05831924598136982</v>
       </c>
       <c r="G90">
-        <v>-0.02615851287962719</v>
+        <v>0.004980413310611855</v>
       </c>
       <c r="H90">
-        <v>0.0424784581237785</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.06215086733097537</v>
+      </c>
+      <c r="I90">
+        <v>0.03026154082513043</v>
+      </c>
+      <c r="J90">
+        <v>-0.02233647197516246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.08429984963701444</v>
+        <v>0.09364222411893092</v>
       </c>
       <c r="C91">
-        <v>0.03091749995492194</v>
+        <v>0.02015715871060839</v>
       </c>
       <c r="D91">
-        <v>0.004595739440653018</v>
+        <v>0.02087925279269497</v>
       </c>
       <c r="E91">
-        <v>-0.01421049498142743</v>
+        <v>-0.01425595520300116</v>
       </c>
       <c r="F91">
-        <v>0.0427001718601474</v>
+        <v>-0.0174705190307418</v>
       </c>
       <c r="G91">
-        <v>0.0311585804795008</v>
+        <v>-0.0202808676662866</v>
       </c>
       <c r="H91">
-        <v>0.009090585553137347</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.001836352897975475</v>
+      </c>
+      <c r="I91">
+        <v>-0.04620424061839998</v>
+      </c>
+      <c r="J91">
+        <v>0.07058370092207189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.06825047860727386</v>
+        <v>0.08661190053550948</v>
       </c>
       <c r="C92">
-        <v>-0.3602818690407024</v>
+        <v>-0.3351870739860615</v>
       </c>
       <c r="D92">
-        <v>0.02308962844173048</v>
+        <v>-0.09786380160763357</v>
       </c>
       <c r="E92">
-        <v>0.02187442312542313</v>
+        <v>0.008688788639200886</v>
       </c>
       <c r="F92">
-        <v>-0.05393578016253923</v>
+        <v>0.0085037398658337</v>
       </c>
       <c r="G92">
-        <v>0.01432977534936972</v>
+        <v>0.02915073292032536</v>
       </c>
       <c r="H92">
-        <v>0.02764269106963577</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.05714506332819268</v>
+      </c>
+      <c r="I92">
+        <v>0.03090057564874488</v>
+      </c>
+      <c r="J92">
+        <v>0.06449810384811092</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.08507837538567065</v>
+        <v>0.08021597381504876</v>
       </c>
       <c r="C93">
-        <v>-0.3126040233364366</v>
+        <v>-0.3286956150924092</v>
       </c>
       <c r="D93">
-        <v>-0.01643523377106705</v>
+        <v>-0.072197824598869</v>
       </c>
       <c r="E93">
-        <v>0.008468858057392809</v>
+        <v>0.00567209932054316</v>
       </c>
       <c r="F93">
-        <v>-0.0174702034097647</v>
+        <v>0.06239305794485501</v>
       </c>
       <c r="G93">
-        <v>0.02885625954368631</v>
+        <v>0.001512468586809844</v>
       </c>
       <c r="H93">
-        <v>-0.001147995300486175</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.0386401479668346</v>
+      </c>
+      <c r="I93">
+        <v>0.03645492614788806</v>
+      </c>
+      <c r="J93">
+        <v>0.01418669233717125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.09775869133051279</v>
+        <v>0.1471869841258701</v>
       </c>
       <c r="C94">
-        <v>0.04988840090040557</v>
+        <v>0.03119157270820613</v>
       </c>
       <c r="D94">
-        <v>0.00627020019192113</v>
+        <v>0.02275849745817628</v>
       </c>
       <c r="E94">
-        <v>-0.02895794586220457</v>
+        <v>0.04662652810360477</v>
       </c>
       <c r="F94">
-        <v>0.08469466296348446</v>
+        <v>-0.03208964327099174</v>
       </c>
       <c r="G94">
-        <v>0.01014237780757088</v>
+        <v>-0.008992993494501075</v>
       </c>
       <c r="H94">
-        <v>-0.04036736202622948</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.005978067437856942</v>
+      </c>
+      <c r="I94">
+        <v>-0.0359982126250463</v>
+      </c>
+      <c r="J94">
+        <v>0.05174154233484945</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1306677117802065</v>
+        <v>0.1289723729257205</v>
       </c>
       <c r="C95">
-        <v>0.06018453768877427</v>
+        <v>0.04054313856129994</v>
       </c>
       <c r="D95">
-        <v>0.07750310139189394</v>
+        <v>0.03255283079071608</v>
       </c>
       <c r="E95">
-        <v>0.06802614737693156</v>
+        <v>0.04174926901451122</v>
       </c>
       <c r="F95">
-        <v>-0.1727619876486872</v>
+        <v>0.008099515581094081</v>
       </c>
       <c r="G95">
-        <v>-0.04727760518047038</v>
+        <v>-0.01285789907625713</v>
       </c>
       <c r="H95">
-        <v>-0.03962469789145898</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.09176145529677313</v>
+      </c>
+      <c r="I95">
+        <v>0.1400574427363709</v>
+      </c>
+      <c r="J95">
+        <v>-0.1065495542789625</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.01226686681388014</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.0002460954433159037</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.00294057508362609</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.0005162086233569308</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.002367063290042148</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.0102144281068244</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.004069355693001632</v>
+      </c>
+      <c r="I96">
+        <v>0.01617361013108004</v>
+      </c>
+      <c r="J96">
+        <v>-0.007038069261501036</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>-0.1413982791887583</v>
+        <v>0.1719168217465216</v>
       </c>
       <c r="C97">
-        <v>-0.03580301443669295</v>
+        <v>-0.01763984718494553</v>
       </c>
       <c r="D97">
-        <v>-0.1604420837452067</v>
+        <v>0.05036354240151943</v>
       </c>
       <c r="E97">
-        <v>-0.8748061497988959</v>
+        <v>0.07679507760700267</v>
       </c>
       <c r="F97">
-        <v>-0.192949944680668</v>
+        <v>-0.07873986489507905</v>
       </c>
       <c r="G97">
-        <v>-0.04906394748475047</v>
+        <v>0.8572717092387112</v>
       </c>
       <c r="H97">
-        <v>0.03770566010536504</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.1765589177538781</v>
+      </c>
+      <c r="I97">
+        <v>-0.2866788500788344</v>
+      </c>
+      <c r="J97">
+        <v>-0.1792089027151544</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.3188042643080369</v>
+        <v>0.2454318877650939</v>
       </c>
       <c r="C98">
-        <v>0.06879004141035633</v>
+        <v>-0.009292059242801399</v>
       </c>
       <c r="D98">
-        <v>-0.175987772754456</v>
+        <v>-0.06252983285933189</v>
       </c>
       <c r="E98">
-        <v>0.1317558615269201</v>
+        <v>-0.1436937340722856</v>
       </c>
       <c r="F98">
-        <v>0.06010885848012976</v>
+        <v>-0.1507273821647281</v>
       </c>
       <c r="G98">
-        <v>0.2213277183443512</v>
+        <v>-0.1815172966022295</v>
       </c>
       <c r="H98">
-        <v>0.1386670855319872</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.3273727527369087</v>
+      </c>
+      <c r="I98">
+        <v>-0.280541191538959</v>
+      </c>
+      <c r="J98">
+        <v>0.2594419929676263</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>-0.09035075317585187</v>
+        <v>0.05954139005292627</v>
       </c>
       <c r="C99">
-        <v>0.01767898134854862</v>
+        <v>-0.006287344386975179</v>
       </c>
       <c r="D99">
-        <v>0.01638167177880593</v>
+        <v>0.02061157886693297</v>
       </c>
       <c r="E99">
-        <v>-0.009088934151513952</v>
+        <v>0.04903169752535633</v>
       </c>
       <c r="F99">
-        <v>0.02257312826904157</v>
+        <v>0.009166376611795202</v>
       </c>
       <c r="G99">
-        <v>-0.007468061790247777</v>
+        <v>-0.01273666101902755</v>
       </c>
       <c r="H99">
-        <v>0.07145484023944786</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.0273928690259358</v>
+      </c>
+      <c r="I99">
+        <v>-0.009250966220680288</v>
+      </c>
+      <c r="J99">
+        <v>-0.004112253711919204</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.09220471962561078</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.2149055405346182</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.8829345609111421</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.2604446337986556</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.08336381981771682</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.09146284194998509</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.04647436404744866</v>
+      </c>
+      <c r="I100">
+        <v>0.1342467857190359</v>
+      </c>
+      <c r="J100">
+        <v>0.007392914257487193</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.05862154479782902</v>
+        <v>0.03755280790707184</v>
       </c>
       <c r="C101">
-        <v>-0.00322406569078336</v>
+        <v>0.004722809057670105</v>
       </c>
       <c r="D101">
-        <v>0.04086182567809955</v>
+        <v>-0.006271249315343542</v>
       </c>
       <c r="E101">
-        <v>0.02695161116521727</v>
+        <v>0.01066620414588441</v>
       </c>
       <c r="F101">
-        <v>0.005619761412598403</v>
+        <v>0.02249815248928391</v>
       </c>
       <c r="G101">
-        <v>-0.0439324857375381</v>
+        <v>-0.00598092544816157</v>
       </c>
       <c r="H101">
-        <v>-0.1072457255035698</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.05327301335848438</v>
+      </c>
+      <c r="I101">
+        <v>0.02415942441584955</v>
+      </c>
+      <c r="J101">
+        <v>0.1132841617902239</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +3967,16 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +3999,16 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4029,12 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
